--- a/nbc/Citations (Concised).xlsx
+++ b/nbc/Citations (Concised).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="924" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="924" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist of Evidence" sheetId="45" r:id="rId1"/>
@@ -1713,13 +1713,6 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1728,6 +1721,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1739,6 +1735,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1750,21 +1765,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2021,13 +2021,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -2050,13 +2050,13 @@
       <c r="Y1" s="33"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -2109,10 +2109,10 @@
       <c r="A4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -2138,10 +2138,10 @@
       <c r="A5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -2167,10 +2167,10 @@
       <c r="A6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -2196,10 +2196,10 @@
       <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -2225,10 +2225,10 @@
       <c r="A8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
@@ -2278,13 +2278,13 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -2343,10 +2343,10 @@
       <c r="C12" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="154"/>
+      <c r="E12" s="152"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -2609,7 +2609,7 @@
       <c r="Y20" s="33"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="145" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -2642,7 +2642,7 @@
       <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="149"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="52" t="s">
         <v>84</v>
       </c>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="99"/>
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="147" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="84"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
-      <c r="B46" s="150"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="84"/>
       <c r="D46" s="45"/>
       <c r="E46" s="106"/>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="47" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="99"/>
-      <c r="B47" s="150"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="84"/>
       <c r="D47" s="45"/>
       <c r="E47" s="106"/>
@@ -29911,17 +29911,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29949,24 +29949,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -29985,21 +29985,21 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
@@ -30012,17 +30012,17 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30031,13 +30031,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30152,26 +30152,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="163"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="12" t="s">
         <v>7</v>
       </c>
@@ -30183,16 +30183,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -30223,24 +30223,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -30259,21 +30259,21 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
@@ -30286,17 +30286,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30305,13 +30305,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30426,26 +30426,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="22" t="s">
         <v>9</v>
       </c>
@@ -30457,16 +30457,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30497,24 +30497,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30533,21 +30533,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30560,17 +30560,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30579,13 +30579,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30700,26 +30700,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -30731,16 +30731,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30771,24 +30771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30807,21 +30807,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30834,17 +30834,17 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30853,13 +30853,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30974,26 +30974,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -31045,24 +31045,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -31081,21 +31081,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31108,17 +31108,17 @@
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31127,13 +31127,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31248,26 +31248,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -31279,16 +31279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31319,24 +31319,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
@@ -31355,21 +31355,21 @@
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31382,17 +31382,17 @@
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31401,13 +31401,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31522,26 +31522,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
       <c r="F29" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="157"/>
       <c r="F31" s="29" t="s">
         <v>9</v>
       </c>
@@ -31577,7 +31577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -31678,7 +31678,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>2</v>
       </c>
@@ -31941,8 +31941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/nbc/Citations (Concised).xlsx
+++ b/nbc/Citations (Concised).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="924" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="924" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist of Evidence" sheetId="45" r:id="rId1"/>
@@ -1713,6 +1713,13 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1721,9 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1735,25 +1739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1765,6 +1750,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2021,13 +2021,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -2050,13 +2050,13 @@
       <c r="Y1" s="33"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -2109,10 +2109,10 @@
       <c r="A4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -2138,10 +2138,10 @@
       <c r="A5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -2167,10 +2167,10 @@
       <c r="A6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -2196,10 +2196,10 @@
       <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -2225,10 +2225,10 @@
       <c r="A8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
@@ -2278,13 +2278,13 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -2343,10 +2343,10 @@
       <c r="C12" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="152"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -2609,7 +2609,7 @@
       <c r="Y20" s="33"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="148" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -2642,7 +2642,7 @@
       <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="52" t="s">
         <v>84</v>
       </c>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="99"/>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="150" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="84"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
-      <c r="B46" s="147"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="84"/>
       <c r="D46" s="45"/>
       <c r="E46" s="106"/>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="47" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="99"/>
-      <c r="B47" s="147"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="84"/>
       <c r="D47" s="45"/>
       <c r="E47" s="106"/>
@@ -29911,17 +29911,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29949,24 +29949,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -29985,21 +29985,21 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
@@ -30012,17 +30012,17 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30031,13 +30031,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30152,26 +30152,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="163"/>
+      <c r="D30" s="158"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="12" t="s">
         <v>7</v>
       </c>
@@ -30183,16 +30183,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -30223,24 +30223,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -30259,21 +30259,21 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
@@ -30286,17 +30286,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30305,13 +30305,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30426,26 +30426,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="162"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="22" t="s">
         <v>9</v>
       </c>
@@ -30457,16 +30457,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30497,24 +30497,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30533,21 +30533,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30560,17 +30560,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30579,13 +30579,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30700,26 +30700,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="162"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -30731,16 +30731,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30771,24 +30771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30807,21 +30807,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30834,17 +30834,17 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30853,13 +30853,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30974,26 +30974,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="162"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -31045,24 +31045,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -31081,21 +31081,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31108,17 +31108,17 @@
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31127,13 +31127,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31248,26 +31248,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="162"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -31279,16 +31279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31319,24 +31319,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
@@ -31355,21 +31355,21 @@
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31382,17 +31382,17 @@
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="164"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31401,13 +31401,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31522,26 +31522,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="F29" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="162"/>
       <c r="F30" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="159"/>
       <c r="F31" s="29" t="s">
         <v>9</v>
       </c>
@@ -31577,8 +31577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31933,7 +31933,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31941,7 +31941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -32211,6 +32211,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>